--- a/AppendixAState2014.xlsx
+++ b/AppendixAState2014.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Individual Folders\Lisa.Ireland\2013-14 P210\2013-14 Report &amp; Appendices for Web\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4548" yWindow="696" windowWidth="24912" windowHeight="12012" activeTab="1"/>
+    <workbookView xWindow="40940" yWindow="0" windowWidth="23080" windowHeight="20660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2014 4-Year Cohort" sheetId="5" r:id="rId1"/>
     <sheet name="2014 5-Year Cohort" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -135,9 +135,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="42" x14ac:knownFonts="1">
     <font>
@@ -732,29 +732,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,23 +762,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,7 +786,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -808,24 +808,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -833,10 +833,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1221,8 +1221,8 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1"/>
@@ -1230,10 +1230,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="17" xfId="87" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1250,13 +1250,13 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" xfId="359" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" xfId="359" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="11" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="87" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1269,7 +1269,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1709,7 +1709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1744,7 +1744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1955,29 +1955,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O5" sqref="O5:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="10" customWidth="1"/>
-    <col min="4" max="7" width="6.21875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="10" customWidth="1"/>
+    <col min="4" max="7" width="6.1640625" style="10" customWidth="1"/>
     <col min="8" max="11" width="7.6640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="6.77734375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="10" customWidth="1"/>
     <col min="15" max="15" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="10"/>
+    <col min="16" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="30" t="s">
@@ -1994,7 +1994,7 @@
       <c r="M3" s="21"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="55">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="O11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="O12" s="19"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="O13" s="19"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="9" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="O14" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="O15" s="19"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="25" t="s">
         <v>28</v>
       </c>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="25" t="s">
         <v>11</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="25">
         <v>504</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="O18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="25" t="s">
         <v>32</v>
       </c>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="O19" s="19"/>
     </row>
-    <row r="20" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="20" customFormat="1">
       <c r="A20" s="25" t="s">
         <v>33</v>
       </c>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="O20" s="19"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="9" t="s">
         <v>10</v>
       </c>
@@ -2907,7 +2907,12 @@
     <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2915,28 +2920,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="10" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="10" customWidth="1"/>
-    <col min="4" max="8" width="6.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" style="10" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="10" customWidth="1"/>
+    <col min="4" max="8" width="6.1640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="10" customWidth="1"/>
     <col min="10" max="10" width="8" style="10" customWidth="1"/>
-    <col min="11" max="12" width="7.109375" style="10" customWidth="1"/>
-    <col min="13" max="15" width="6.88671875" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="10"/>
+    <col min="11" max="12" width="7.1640625" style="10" customWidth="1"/>
+    <col min="13" max="15" width="6.83203125" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="30" t="s">
@@ -2954,7 +2959,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="55">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -3001,7 +3006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="26" t="s">
         <v>1</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>3.933984842441165</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
@@ -3101,7 +3106,7 @@
         <v>7.2672218016654053</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="26" t="s">
         <v>3</v>
       </c>
@@ -3151,7 +3156,7 @@
         <v>3.5363457760314341</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -3201,7 +3206,7 @@
         <v>3.3661056490584902</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -3251,7 +3256,7 @@
         <v>5.1948051948051948</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="26" t="s">
         <v>4</v>
       </c>
@@ -3301,7 +3306,7 @@
         <v>6.9234773555439872</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="26" t="s">
         <v>5</v>
       </c>
@@ -3351,7 +3356,7 @@
         <v>5.6824021731150429</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="26" t="s">
         <v>6</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>3.2329372754904671</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="26" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>3.5679845708775311</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="26" t="s">
         <v>7</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>13.575313575313574</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
@@ -3551,7 +3556,7 @@
         <v>8.8948187680675996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
@@ -3601,7 +3606,7 @@
         <v>5.9630367363404861</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="26" t="s">
         <v>11</v>
       </c>
@@ -3651,7 +3656,7 @@
         <v>6.2224183583406889</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="26">
         <v>504</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>5.1274451689389444</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="26" t="s">
         <v>32</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>9.1200733272227321</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="26" t="s">
         <v>33</v>
       </c>
@@ -3801,7 +3806,7 @@
         <v>13.20754716981132</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="26" t="s">
         <v>9</v>
       </c>
@@ -3851,7 +3856,7 @@
         <v>3.1519566922162352</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="26" t="s">
         <v>10</v>
       </c>
@@ -3906,7 +3911,12 @@
     <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4040,13 +4050,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30799DD-781C-4BF6-82EE-5B9C25D59E46}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30799DD-781C-4BF6-82EE-5B9C25D59E46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EF8926B-B50F-4524-9CF6-C127C38BBFB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EF8926B-B50F-4524-9CF6-C127C38BBFB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B77B34-4CC4-44AB-9219-62527D3B95A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B77B34-4CC4-44AB-9219-62527D3B95A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>